--- a/Vessels_DATA/MODEL_23964.xlsx
+++ b/Vessels_DATA/MODEL_23964.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evert\Documents\TU-Delft\TIL Master\MT44070 Shipping Management\Vessels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evert\Documents\TU-Delft\TIL Master\MT44070 Shipping Management\MT44070_REPO\MT44070_SHIPPING\Vessels_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BFF4B4-8C66-4995-8860-B711CE5F025D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D43BEDB-29B4-49F8-97CC-C87DFF15E338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{EB034EE4-DBD3-436B-BDF3-031D4B2491DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB034EE4-DBD3-436B-BDF3-031D4B2491DA}"/>
   </bookViews>
   <sheets>
     <sheet name="CostShip" sheetId="1" r:id="rId1"/>
@@ -9736,16 +9736,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>555925</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>45816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2994325</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>15336</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9772,16 +9772,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352612</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>78292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>375920</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>483497</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47811</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9809,15 +9809,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>375920</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
+      <xdr:colOff>124908</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>42433</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>328108</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>11952</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10313,7 +10313,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17604B3-DC39-43E6-975C-948E5361F464}">
   <dimension ref="B1:AM47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -47945,7 +47947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F44E3BB-A283-4E72-938C-ABFBC87804C7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
